--- a/ProjectPlan/Gantt project planner_v0.2_Weekly.xlsx
+++ b/ProjectPlan/Gantt project planner_v0.2_Weekly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MLCourse\Capstone Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranga\Documents\GitHub\capstoneML\ProjectPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -704,23 +704,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1134,7 +1134,7 @@
   <dimension ref="B1:U268"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1172,11 +1172,11 @@
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="2:21" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="43"/>
       <c r="H2" s="37"/>
       <c r="I2" s="38"/>
@@ -1196,15 +1196,15 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="37"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="2:21" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="15"/>
@@ -1255,36 +1255,36 @@
       </c>
     </row>
     <row r="5" spans="2:21" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
@@ -1293,13 +1293,13 @@
       <c r="U5" s="18"/>
     </row>
     <row r="6" spans="2:21" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="39">
         <v>1</v>
       </c>
@@ -1454,8 +1454,12 @@
       <c r="D10" s="29">
         <v>3</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>3</v>
+      </c>
       <c r="G10" s="46" t="s">
         <v>30</v>
       </c>
@@ -1486,8 +1490,12 @@
       <c r="D11" s="29">
         <v>1</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="29">
+        <v>3</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
       <c r="G11" s="29" t="s">
         <v>27</v>
       </c>
@@ -1518,8 +1526,12 @@
       <c r="D12" s="29">
         <v>2</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="29">
+        <v>3</v>
+      </c>
+      <c r="F12" s="29">
+        <v>2</v>
+      </c>
       <c r="G12" s="29" t="s">
         <v>30</v>
       </c>
@@ -1550,8 +1562,12 @@
       <c r="D13" s="29">
         <v>1</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="29">
+        <v>4</v>
+      </c>
+      <c r="F13" s="29">
+        <v>2</v>
+      </c>
       <c r="G13" s="29" t="s">
         <v>30</v>
       </c>
@@ -1582,8 +1598,12 @@
       <c r="D14" s="29">
         <v>5</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="29">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>5</v>
+      </c>
       <c r="G14" s="29" t="s">
         <v>27</v>
       </c>
@@ -1614,8 +1634,12 @@
       <c r="D15" s="29">
         <v>3</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="29">
+        <v>2</v>
+      </c>
+      <c r="F15" s="29">
+        <v>3</v>
+      </c>
       <c r="G15" s="29" t="s">
         <v>29</v>
       </c>
@@ -1646,8 +1670,12 @@
       <c r="D16" s="29">
         <v>4</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="29">
+        <v>3</v>
+      </c>
+      <c r="F16" s="29">
+        <v>4</v>
+      </c>
       <c r="G16" s="29" t="s">
         <v>27</v>
       </c>
@@ -1678,8 +1706,12 @@
       <c r="D17" s="29">
         <v>3</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="E17" s="29">
+        <v>4</v>
+      </c>
+      <c r="F17" s="29">
+        <v>4</v>
+      </c>
       <c r="G17" s="29" t="s">
         <v>27</v>
       </c>
@@ -1710,8 +1742,12 @@
       <c r="D18" s="29">
         <v>2</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="29">
+        <v>5</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2</v>
+      </c>
       <c r="G18" s="29" t="s">
         <v>27</v>
       </c>
@@ -1742,8 +1778,12 @@
       <c r="D19" s="29">
         <v>2</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="E19" s="29">
+        <v>6</v>
+      </c>
+      <c r="F19" s="29">
+        <v>2</v>
+      </c>
       <c r="G19" s="29" t="s">
         <v>27</v>
       </c>
@@ -1774,8 +1814,12 @@
       <c r="D20" s="29">
         <v>1</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="29">
+        <v>7</v>
+      </c>
+      <c r="F20" s="29">
+        <v>2</v>
+      </c>
       <c r="G20" s="29" t="s">
         <v>31</v>
       </c>
@@ -1806,8 +1850,12 @@
       <c r="D21" s="29">
         <v>5</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="29">
+        <v>2</v>
+      </c>
+      <c r="F21" s="29">
+        <v>5</v>
+      </c>
       <c r="G21" s="29" t="s">
         <v>30</v>
       </c>
@@ -1838,8 +1886,12 @@
       <c r="D22" s="29">
         <v>2</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="29">
+        <v>5</v>
+      </c>
+      <c r="F22" s="29">
+        <v>2</v>
+      </c>
       <c r="G22" s="29" t="s">
         <v>27</v>
       </c>
@@ -1870,8 +1922,12 @@
       <c r="D23" s="29">
         <v>2</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="E23" s="29">
+        <v>5</v>
+      </c>
+      <c r="F23" s="29">
+        <v>2</v>
+      </c>
       <c r="G23" s="29" t="s">
         <v>31</v>
       </c>
@@ -1902,8 +1958,12 @@
       <c r="D24" s="29">
         <v>1</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="E24" s="29">
+        <v>7</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1</v>
+      </c>
       <c r="G24" s="29" t="s">
         <v>31</v>
       </c>
